--- a/evaluation_data/sheet.xlsx
+++ b/evaluation_data/sheet.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mca\judge-ai\judge-ai\evaluation_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBE5506-7FB1-4F50-A73E-550DD9CD4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Position</t>
   </si>
   <si>
     <t>Ease of use (1-5)</t>
@@ -42,9 +48,6 @@
   </si>
   <si>
     <t>student1</t>
-  </si>
-  <si>
-    <t>M.C.A. Scholar</t>
   </si>
   <si>
     <t xml:space="preserve">1)The UI is good and as expected for a judge or any end user. 
@@ -65,9 +68,6 @@
     <t>stusent2</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
     <t>UI can be made even more simplified and can enhance the query output generation.</t>
   </si>
   <si>
@@ -99,9 +99,6 @@
     <t>stusent5</t>
   </si>
   <si>
-    <t>MCA Student</t>
-  </si>
-  <si>
     <t>Better UI.</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>stusent6</t>
   </si>
   <si>
-    <t>MCA</t>
-  </si>
-  <si>
     <t>Better UI</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>stusent7</t>
   </si>
   <si>
-    <t>MCA student</t>
-  </si>
-  <si>
     <t>Generating Time, point wise not generating</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>stusent8</t>
   </si>
   <si>
-    <t>Student (MCA) Data Science</t>
-  </si>
-  <si>
     <t>The answers were in an summary format it would be wonderful if i get it in a point to point manner</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
   </si>
   <si>
     <t>stusent10</t>
-  </si>
-  <si>
-    <t>STUDENT</t>
   </si>
   <si>
     <t>improve user UI</t>
@@ -195,44 +180,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color theme="4"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="8"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -242,7 +233,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -258,7 +249,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -272,119 +269,102 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="2" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="Sheet1-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:I13" displayName="Table_1" name="Table_1" id="1">
-  <tableColumns count="9">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:H13" headerRowCount="0">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -574,32 +554,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.38"/>
-    <col customWidth="1" min="2" max="2" width="24.25"/>
-    <col customWidth="1" min="3" max="3" width="22.63"/>
-    <col customWidth="1" min="4" max="4" width="17.13"/>
-    <col customWidth="1" min="5" max="5" width="23.75"/>
-    <col customWidth="1" min="6" max="6" width="33.38"/>
-    <col customWidth="1" min="7" max="7" width="47.5"/>
-    <col customWidth="1" min="8" max="8" width="43.75"/>
-    <col customWidth="1" min="9" max="9" width="68.75"/>
-    <col customWidth="1" min="10" max="10" width="45.5"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1"/>
+    <col min="8" max="8" width="68.7109375" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,354 +605,317 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>45744.576886574076</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>45744.595405092594</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="C4" s="9">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7">
-        <v>45744.595405092594</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>45744.609097222223</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7">
-        <v>45744.60909722222</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>45744.612013888887</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7">
-        <v>45744.61201388889</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>45744.618437500001</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7">
-        <v>45744.6184375</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>45744.628252314818</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="9" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>45744.649270833332</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7">
-        <v>45744.62825231482</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>45744.650995370372</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7">
-        <v>45744.64927083333</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="9" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>45744.65662037037</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7">
-        <v>45744.65099537037</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="G10" s="9" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>45744.662499999999</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7">
-        <v>45744.65662037037</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>45744.667233796295</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7">
-        <v>45744.6625</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="13">
-        <v>45744.667233796295</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink r:id="rId3" ref="B5"/>
-    <hyperlink r:id="rId4" ref="B6"/>
-    <hyperlink r:id="rId5" ref="B7"/>
-    <hyperlink r:id="rId6" ref="B8"/>
-    <hyperlink r:id="rId7" ref="B9"/>
-    <hyperlink r:id="rId8" ref="B10"/>
-    <hyperlink r:id="rId9" ref="B11"/>
-    <hyperlink r:id="rId10" ref="B12"/>
-    <hyperlink r:id="rId11" ref="B13"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>